--- a/data/raw/others/C0091Y.xlsx
+++ b/data/raw/others/C0091Y.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\MMB_forecast_application\data\raw\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339C5A0-4942-4D48-BEEB-5F8087AD818D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6402177C-AB7A-474F-BB4A-193AC2E23BB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27900" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Dates</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>C0091Y_20200512</t>
   </si>
@@ -361,7 +358,7 @@
   <dimension ref="A1:C7672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,11 +367,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/raw/others/C0091Y.xlsx
+++ b/data/raw/others/C0091Y.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\MMB_forecast_application\data\raw\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD25835-08E2-4B9C-9859-90B4165F5894}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B34BA-F4D5-4FD2-890F-9433F66706F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27900" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -355,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7696"/>
+  <dimension ref="A1:C7786"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7761" workbookViewId="0">
+      <selection activeCell="D7694" sqref="D7694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62017,6 +62019,726 @@
         <v>1.8092000000000001</v>
       </c>
     </row>
+    <row r="7697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7697" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B7697">
+        <v>1.7883</v>
+      </c>
+    </row>
+    <row r="7698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7698" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B7698">
+        <v>1.6964999999999999</v>
+      </c>
+    </row>
+    <row r="7699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7699" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B7699">
+        <v>1.7298</v>
+      </c>
+    </row>
+    <row r="7700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7700" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B7700">
+        <v>1.8162</v>
+      </c>
+    </row>
+    <row r="7701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7701" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B7701">
+        <v>1.6431</v>
+      </c>
+    </row>
+    <row r="7702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7702" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B7702">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="7703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7703" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B7703">
+        <v>1.6114000000000002</v>
+      </c>
+    </row>
+    <row r="7704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7704" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B7704">
+        <v>1.5295000000000001</v>
+      </c>
+    </row>
+    <row r="7705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7705" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B7705">
+        <v>1.5295000000000001</v>
+      </c>
+    </row>
+    <row r="7706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7706" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B7706">
+        <v>1.4809999999999999</v>
+      </c>
+    </row>
+    <row r="7707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7707" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B7707">
+        <v>1.5413000000000001</v>
+      </c>
+    </row>
+    <row r="7708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7708" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B7708">
+        <v>1.4380999999999999</v>
+      </c>
+    </row>
+    <row r="7709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7709" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B7709">
+        <v>1.4593</v>
+      </c>
+    </row>
+    <row r="7710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7710" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B7710">
+        <v>1.4593</v>
+      </c>
+    </row>
+    <row r="7711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7711" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B7711">
+        <v>1.3816999999999999</v>
+      </c>
+    </row>
+    <row r="7712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7712" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B7712">
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="7713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7713" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B7713">
+        <v>1.2779</v>
+      </c>
+    </row>
+    <row r="7714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7714" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B7714">
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="7715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7715" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B7715">
+        <v>1.2307999999999999</v>
+      </c>
+    </row>
+    <row r="7716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7716" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B7716">
+        <v>1.2791999999999999</v>
+      </c>
+    </row>
+    <row r="7717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7717" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B7717">
+        <v>1.2209000000000001</v>
+      </c>
+    </row>
+    <row r="7718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7718" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B7718">
+        <v>1.2161</v>
+      </c>
+    </row>
+    <row r="7719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7719" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B7719">
+        <v>1.2645999999999999</v>
+      </c>
+    </row>
+    <row r="7720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7720" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B7720">
+        <v>1.2254</v>
+      </c>
+    </row>
+    <row r="7721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7721" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B7721">
+        <v>1.1697</v>
+      </c>
+    </row>
+    <row r="7722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7722" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B7722">
+        <v>1.1554</v>
+      </c>
+    </row>
+    <row r="7723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7723" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B7723">
+        <v>1.1692</v>
+      </c>
+    </row>
+    <row r="7724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7724" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B7724">
+        <v>1.1255999999999999</v>
+      </c>
+    </row>
+    <row r="7725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7725" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B7725">
+        <v>1.0239</v>
+      </c>
+    </row>
+    <row r="7726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7726" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B7726">
+        <v>0.99219999999999997</v>
+      </c>
+    </row>
+    <row r="7727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7727" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B7727">
+        <v>0.98919999999999997</v>
+      </c>
+    </row>
+    <row r="7728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7728" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B7728">
+        <v>1.0254000000000001</v>
+      </c>
+    </row>
+    <row r="7729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7729" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B7729">
+        <v>1.0354000000000001</v>
+      </c>
+    </row>
+    <row r="7730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7730" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B7730">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="7731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7731" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B7731">
+        <v>1.0077</v>
+      </c>
+    </row>
+    <row r="7732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7732" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B7732">
+        <v>0.97440000000000004</v>
+      </c>
+    </row>
+    <row r="7733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7733" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B7733">
+        <v>0.91279999999999994</v>
+      </c>
+    </row>
+    <row r="7734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7734" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B7734">
+        <v>0.91279999999999994</v>
+      </c>
+    </row>
+    <row r="7735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7735" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B7735">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="7736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7736" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B7736">
+        <v>0.91779999999999995</v>
+      </c>
+    </row>
+    <row r="7737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7737" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B7737">
+        <v>0.88890000000000002</v>
+      </c>
+    </row>
+    <row r="7738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7738" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B7738">
+        <v>0.90849999999999997</v>
+      </c>
+    </row>
+    <row r="7739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7739" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B7739">
+        <v>0.85289999999999999</v>
+      </c>
+    </row>
+    <row r="7740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7740" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B7740">
+        <v>0.82269999999999999</v>
+      </c>
+    </row>
+    <row r="7741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7741" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B7741">
+        <v>0.8397</v>
+      </c>
+    </row>
+    <row r="7742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7742" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B7742">
+        <v>0.82640000000000002</v>
+      </c>
+    </row>
+    <row r="7743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7743" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B7743">
+        <v>0.81030000000000002</v>
+      </c>
+    </row>
+    <row r="7744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7744" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B7744">
+        <v>0.81930000000000003</v>
+      </c>
+    </row>
+    <row r="7745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7745" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B7745">
+        <v>0.76670000000000005</v>
+      </c>
+    </row>
+    <row r="7746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7746" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B7746">
+        <v>0.76090000000000002</v>
+      </c>
+    </row>
+    <row r="7747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7747" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B7747">
+        <v>0.7823</v>
+      </c>
+    </row>
+    <row r="7748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7748" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B7748">
+        <v>0.74770000000000003</v>
+      </c>
+    </row>
+    <row r="7749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7749" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B7749">
+        <v>0.74970000000000003</v>
+      </c>
+    </row>
+    <row r="7750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7750" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B7750">
+        <v>0.77129999999999999</v>
+      </c>
+    </row>
+    <row r="7751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7751" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B7751">
+        <v>0.75539999999999996</v>
+      </c>
+    </row>
+    <row r="7752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7752" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B7752">
+        <v>0.73309999999999997</v>
+      </c>
+    </row>
+    <row r="7753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7753" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B7753">
+        <v>0.70469999999999999</v>
+      </c>
+    </row>
+    <row r="7754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7754" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B7754">
+        <v>0.67390000000000005</v>
+      </c>
+    </row>
+    <row r="7755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7755" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B7755">
+        <v>0.66010000000000002</v>
+      </c>
+    </row>
+    <row r="7756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7756" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B7756">
+        <v>0.67110000000000003</v>
+      </c>
+    </row>
+    <row r="7757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7757" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B7757">
+        <v>0.63980000000000004</v>
+      </c>
+    </row>
+    <row r="7758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7758" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B7758">
+        <v>0.59230000000000005</v>
+      </c>
+    </row>
+    <row r="7759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7759" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B7759">
+        <v>0.61109999999999998</v>
+      </c>
+    </row>
+    <row r="7760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7760" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B7760">
+        <v>0.60719999999999996</v>
+      </c>
+    </row>
+    <row r="7761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7761" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B7761">
+        <v>0.60950000000000004</v>
+      </c>
+    </row>
+    <row r="7762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7762" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B7762">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="7763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7763" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B7763">
+        <v>0.62709999999999999</v>
+      </c>
+    </row>
+    <row r="7764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7764" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B7764">
+        <v>0.61570000000000003</v>
+      </c>
+    </row>
+    <row r="7765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7765" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B7765">
+        <v>0.61580000000000001</v>
+      </c>
+    </row>
+    <row r="7766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7766" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B7766">
+        <v>0.62470000000000003</v>
+      </c>
+    </row>
+    <row r="7767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7767" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B7767">
+        <v>0.62560000000000004</v>
+      </c>
+    </row>
+    <row r="7768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7768" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B7768">
+        <v>0.63380000000000003</v>
+      </c>
+    </row>
+    <row r="7769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7769" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B7769">
+        <v>0.62329999999999997</v>
+      </c>
+    </row>
+    <row r="7770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7770" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B7770">
+        <v>0.64129999999999998</v>
+      </c>
+    </row>
+    <row r="7771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7771" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B7771">
+        <v>0.56679999999999997</v>
+      </c>
+    </row>
+    <row r="7772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7772" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B7772">
+        <v>0.57989999999999997</v>
+      </c>
+    </row>
+    <row r="7773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7773" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B7773">
+        <v>0.58320000000000005</v>
+      </c>
+    </row>
+    <row r="7774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7774" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B7774">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="7775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7775" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B7775">
+        <v>0.5706</v>
+      </c>
+    </row>
+    <row r="7776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7776" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B7776">
+        <v>0.53969999999999996</v>
+      </c>
+    </row>
+    <row r="7777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7777" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B7777">
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="7778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7778" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B7778">
+        <v>0.5232</v>
+      </c>
+    </row>
+    <row r="7779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7779" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B7779">
+        <v>0.53710000000000002</v>
+      </c>
+    </row>
+    <row r="7780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7780" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B7780">
+        <v>0.53710000000000002</v>
+      </c>
+    </row>
+    <row r="7781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7781" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B7781">
+        <v>0.5212</v>
+      </c>
+    </row>
+    <row r="7782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7782" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B7782">
+        <v>0.55620000000000003</v>
+      </c>
+    </row>
+    <row r="7783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7783" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B7783">
+        <v>0.53610000000000002</v>
+      </c>
+    </row>
+    <row r="7784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7784" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B7784">
+        <v>0.53410000000000002</v>
+      </c>
+    </row>
+    <row r="7785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7785" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B7785">
+        <v>0.56269999999999998</v>
+      </c>
+    </row>
+    <row r="7786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7786" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B7786">
+        <v>0.54579999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/others/C0091Y.xlsx
+++ b/data/raw/others/C0091Y.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\MMB_forecast_application\data\raw\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B34BA-F4D5-4FD2-890F-9433F66706F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53BF9E9-2D93-4DF3-BA45-6C6EBF0A4AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7786"/>
+  <dimension ref="A1:D7846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7761" workbookViewId="0">
-      <selection activeCell="D7694" sqref="D7694"/>
+    <sheetView tabSelected="1" topLeftCell="A7823" workbookViewId="0">
+      <selection activeCell="B7847" sqref="B7847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62659,7 +62659,7 @@
         <v>0.53969999999999996</v>
       </c>
     </row>
-    <row r="7777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7777" s="1">
         <v>44076</v>
       </c>
@@ -62667,7 +62667,7 @@
         <v>0.52749999999999997</v>
       </c>
     </row>
-    <row r="7778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7778" s="1">
         <v>44077</v>
       </c>
@@ -62675,7 +62675,7 @@
         <v>0.5232</v>
       </c>
     </row>
-    <row r="7779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7779" s="1">
         <v>44078</v>
       </c>
@@ -62683,7 +62683,7 @@
         <v>0.53710000000000002</v>
       </c>
     </row>
-    <row r="7780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7780" s="1">
         <v>44081</v>
       </c>
@@ -62691,7 +62691,7 @@
         <v>0.53710000000000002</v>
       </c>
     </row>
-    <row r="7781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7781" s="1">
         <v>44082</v>
       </c>
@@ -62699,7 +62699,7 @@
         <v>0.5212</v>
       </c>
     </row>
-    <row r="7782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7782" s="1">
         <v>44083</v>
       </c>
@@ -62707,37 +62707,581 @@
         <v>0.55620000000000003</v>
       </c>
     </row>
-    <row r="7783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7783" s="1">
         <v>44084</v>
       </c>
       <c r="B7783">
         <v>0.53610000000000002</v>
       </c>
-    </row>
-    <row r="7784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7783" s="1"/>
+    </row>
+    <row r="7784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7784" s="1">
         <v>44085</v>
       </c>
       <c r="B7784">
         <v>0.53410000000000002</v>
       </c>
-    </row>
-    <row r="7785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7784" s="1"/>
+    </row>
+    <row r="7785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7785" s="1">
         <v>44088</v>
       </c>
       <c r="B7785">
         <v>0.56269999999999998</v>
       </c>
-    </row>
-    <row r="7786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7785" s="1"/>
+    </row>
+    <row r="7786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7786" s="1">
         <v>44089</v>
       </c>
       <c r="B7786">
         <v>0.54579999999999995</v>
       </c>
+      <c r="D7786" s="1"/>
+    </row>
+    <row r="7787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7787" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B7787">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="D7787" s="1"/>
+    </row>
+    <row r="7788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7788" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B7788">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="D7788" s="1"/>
+    </row>
+    <row r="7789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7789" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B7789">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="D7789" s="1"/>
+    </row>
+    <row r="7790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7790" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B7790">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="D7790" s="1"/>
+    </row>
+    <row r="7791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7791" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B7791">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="D7791" s="1"/>
+    </row>
+    <row r="7792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7792" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B7792">
+        <v>0.52990000000000004</v>
+      </c>
+      <c r="D7792" s="1"/>
+    </row>
+    <row r="7793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7793" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B7793">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="D7793" s="1"/>
+    </row>
+    <row r="7794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7794" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B7794">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="D7794" s="1"/>
+    </row>
+    <row r="7795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7795" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B7795">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="D7795" s="1"/>
+    </row>
+    <row r="7796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7796" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B7796">
+        <v>0.53520000000000001</v>
+      </c>
+      <c r="D7796" s="1"/>
+    </row>
+    <row r="7797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7797" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B7797">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="D7797" s="1"/>
+    </row>
+    <row r="7798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7798" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B7798">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="D7798" s="1"/>
+    </row>
+    <row r="7799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7799" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B7799">
+        <v>0.53049999999999997</v>
+      </c>
+      <c r="D7799" s="1"/>
+    </row>
+    <row r="7800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7800" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B7800">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="D7800" s="1"/>
+    </row>
+    <row r="7801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7801" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B7801">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="D7801" s="1"/>
+    </row>
+    <row r="7802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7802" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B7802">
+        <v>0.53639999999999999</v>
+      </c>
+      <c r="D7802" s="1"/>
+    </row>
+    <row r="7803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7803" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B7803">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="D7803" s="1"/>
+    </row>
+    <row r="7804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7804" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B7804">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="D7804" s="1"/>
+    </row>
+    <row r="7805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7805" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B7805">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="D7805" s="1"/>
+    </row>
+    <row r="7806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7806" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B7806">
+        <v>0.50660000000000005</v>
+      </c>
+      <c r="D7806" s="1"/>
+    </row>
+    <row r="7807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7807" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B7807">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="D7807" s="1"/>
+    </row>
+    <row r="7808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7808" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B7808">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="D7808" s="1"/>
+    </row>
+    <row r="7809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7809" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B7809">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="D7809" s="1"/>
+    </row>
+    <row r="7810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7810" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B7810">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="D7810" s="1"/>
+    </row>
+    <row r="7811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7811" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B7811">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="D7811" s="1"/>
+    </row>
+    <row r="7812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7812" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B7812">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="D7812" s="1"/>
+    </row>
+    <row r="7813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7813" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B7813">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="D7813" s="1"/>
+    </row>
+    <row r="7814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7814" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B7814">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="D7814" s="1"/>
+    </row>
+    <row r="7815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7815" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B7815">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="D7815" s="1"/>
+    </row>
+    <row r="7816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7816" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B7816">
+        <v>0.50590000000000002</v>
+      </c>
+      <c r="D7816" s="1"/>
+    </row>
+    <row r="7817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7817" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B7817">
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="D7817" s="1"/>
+    </row>
+    <row r="7818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7818" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B7818">
+        <v>0.51729999999999998</v>
+      </c>
+      <c r="D7818" s="1"/>
+    </row>
+    <row r="7819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7819" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B7819">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="D7819" s="1"/>
+    </row>
+    <row r="7820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7820" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B7820">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="D7820" s="1"/>
+    </row>
+    <row r="7821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7821" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B7821">
+        <v>0.48559999999999998</v>
+      </c>
+      <c r="D7821" s="1"/>
+    </row>
+    <row r="7822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7822" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B7822">
+        <v>0.4914</v>
+      </c>
+      <c r="D7822" s="1"/>
+    </row>
+    <row r="7823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7823" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B7823">
+        <v>0.48430000000000001</v>
+      </c>
+      <c r="D7823" s="1"/>
+    </row>
+    <row r="7824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7824" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B7824">
+        <v>0.4698</v>
+      </c>
+      <c r="D7824" s="1"/>
+    </row>
+    <row r="7825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7825" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B7825">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D7825" s="1"/>
+    </row>
+    <row r="7826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7826" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B7826">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="D7826" s="1"/>
+    </row>
+    <row r="7827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7827" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B7827">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="D7827" s="1"/>
+    </row>
+    <row r="7828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7828" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B7828">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="D7828" s="1"/>
+    </row>
+    <row r="7829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7829" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B7829">
+        <v>0.48920000000000002</v>
+      </c>
+      <c r="D7829" s="1"/>
+    </row>
+    <row r="7830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7830" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B7830">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="D7830" s="1"/>
+    </row>
+    <row r="7831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7831" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B7831">
+        <v>0.4672</v>
+      </c>
+      <c r="D7831" s="1"/>
+    </row>
+    <row r="7832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7832" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B7832">
+        <v>0.46889999999999998</v>
+      </c>
+      <c r="D7832" s="1"/>
+    </row>
+    <row r="7833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7833" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B7833">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D7833" s="1"/>
+    </row>
+    <row r="7834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7834" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B7834">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="D7834" s="1"/>
+    </row>
+    <row r="7835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7835" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B7835">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="D7835" s="1"/>
+    </row>
+    <row r="7836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7836" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B7836">
+        <v>0.4511</v>
+      </c>
+      <c r="D7836" s="1"/>
+    </row>
+    <row r="7837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7837" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B7837">
+        <v>0.45</v>
+      </c>
+      <c r="D7837" s="1"/>
+    </row>
+    <row r="7838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7838" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B7838">
+        <v>0.45579999999999998</v>
+      </c>
+      <c r="D7838" s="1"/>
+    </row>
+    <row r="7839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7839" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B7839">
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="D7839" s="1"/>
+    </row>
+    <row r="7840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7840" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B7840">
+        <v>0.4234</v>
+      </c>
+      <c r="D7840" s="1"/>
+    </row>
+    <row r="7841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7841" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B7841">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="D7841" s="1"/>
+    </row>
+    <row r="7842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7842" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B7842">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="D7842" s="1"/>
+    </row>
+    <row r="7843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7843" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B7843">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="D7843" s="1"/>
+    </row>
+    <row r="7844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7844" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B7844">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="D7844" s="1"/>
+    </row>
+    <row r="7845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7845" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B7845">
+        <v>0.44209999999999999</v>
+      </c>
+      <c r="D7845" s="1"/>
+    </row>
+    <row r="7846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7846" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B7846">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="D7846" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/others/C0091Y.xlsx
+++ b/data/raw/others/C0091Y.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\MMB_forecast_application\data\raw\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53BF9E9-2D93-4DF3-BA45-6C6EBF0A4AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020D176F-9C6A-46E7-8C77-1E4DDDD33741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>C0091Y_20200512</t>
+    <t>C0091Y_20210304</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -357,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7846"/>
+  <dimension ref="A1:E7905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7823" workbookViewId="0">
-      <selection activeCell="B7847" sqref="B7847"/>
+    <sheetView tabSelected="1" topLeftCell="A7878" workbookViewId="0">
+      <selection activeCell="E7852" sqref="E7852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63229,7 +63231,7 @@
       </c>
       <c r="D7840" s="1"/>
     </row>
-    <row r="7841" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7841" s="1">
         <v>44169</v>
       </c>
@@ -63238,7 +63240,7 @@
       </c>
       <c r="D7841" s="1"/>
     </row>
-    <row r="7842" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7842" s="1">
         <v>44172</v>
       </c>
@@ -63247,7 +63249,7 @@
       </c>
       <c r="D7842" s="1"/>
     </row>
-    <row r="7843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7843" s="1">
         <v>44173</v>
       </c>
@@ -63256,7 +63258,7 @@
       </c>
       <c r="D7843" s="1"/>
     </row>
-    <row r="7844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7844" s="1">
         <v>44174</v>
       </c>
@@ -63265,23 +63267,497 @@
       </c>
       <c r="D7844" s="1"/>
     </row>
-    <row r="7845" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7845" s="1">
         <v>44175</v>
       </c>
       <c r="B7845">
         <v>0.44209999999999999</v>
       </c>
-      <c r="D7845" s="1"/>
-    </row>
-    <row r="7846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7845" s="3"/>
+      <c r="E7845" s="2"/>
+    </row>
+    <row r="7846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7846" s="1">
         <v>44176</v>
       </c>
       <c r="B7846">
         <v>0.42309999999999998</v>
       </c>
-      <c r="D7846" s="1"/>
+      <c r="D7846" s="3"/>
+      <c r="E7846" s="2"/>
+    </row>
+    <row r="7847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7847" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B7847" s="2">
+        <v>0.42370000000000002</v>
+      </c>
+    </row>
+    <row r="7848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7848" s="3">
+        <v>44180</v>
+      </c>
+      <c r="B7848" s="2">
+        <v>0.4234</v>
+      </c>
+    </row>
+    <row r="7849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7849" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B7849" s="2">
+        <v>0.42409999999999998</v>
+      </c>
+    </row>
+    <row r="7850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7850" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B7850" s="2">
+        <v>0.4284</v>
+      </c>
+    </row>
+    <row r="7851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7851" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B7851" s="2">
+        <v>0.42009999999999997</v>
+      </c>
+    </row>
+    <row r="7852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7852" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B7852" s="2">
+        <v>0.4249</v>
+      </c>
+    </row>
+    <row r="7853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7853" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B7853" s="2">
+        <v>0.41549999999999998</v>
+      </c>
+    </row>
+    <row r="7854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7854" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B7854" s="2">
+        <v>0.40579999999999999</v>
+      </c>
+    </row>
+    <row r="7855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7855" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B7855" s="2">
+        <v>0.4098</v>
+      </c>
+    </row>
+    <row r="7856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7856" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B7856" s="2">
+        <v>0.4098</v>
+      </c>
+    </row>
+    <row r="7857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7857" s="3">
+        <v>44193</v>
+      </c>
+      <c r="B7857" s="2">
+        <v>0.40179999999999999</v>
+      </c>
+    </row>
+    <row r="7858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7858" s="3">
+        <v>44194</v>
+      </c>
+      <c r="B7858" s="2">
+        <v>0.39610000000000001</v>
+      </c>
+    </row>
+    <row r="7859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7859" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B7859" s="2">
+        <v>0.38829999999999998</v>
+      </c>
+    </row>
+    <row r="7860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7860" s="3">
+        <v>44196</v>
+      </c>
+      <c r="B7860" s="2">
+        <v>0.38140000000000002</v>
+      </c>
+    </row>
+    <row r="7861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7861" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B7861" s="2">
+        <v>0.38140000000000002</v>
+      </c>
+    </row>
+    <row r="7862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7862" s="3">
+        <v>44200</v>
+      </c>
+      <c r="B7862" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="7863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7863" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B7863" s="2">
+        <v>0.38729999999999998</v>
+      </c>
+    </row>
+    <row r="7864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7864" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B7864" s="2">
+        <v>0.40910000000000002</v>
+      </c>
+    </row>
+    <row r="7865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7865" s="3">
+        <v>44203</v>
+      </c>
+      <c r="B7865" s="2">
+        <v>0.40310000000000001</v>
+      </c>
+    </row>
+    <row r="7866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7866" s="3">
+        <v>44204</v>
+      </c>
+      <c r="B7866" s="2">
+        <v>0.40810000000000002</v>
+      </c>
+    </row>
+    <row r="7867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7867" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B7867" s="2">
+        <v>0.41670000000000001</v>
+      </c>
+    </row>
+    <row r="7868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7868" s="3">
+        <v>44208</v>
+      </c>
+      <c r="B7868" s="2">
+        <v>0.40920000000000001</v>
+      </c>
+    </row>
+    <row r="7869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7869" s="3">
+        <v>44209</v>
+      </c>
+      <c r="B7869" s="2">
+        <v>0.3997</v>
+      </c>
+    </row>
+    <row r="7870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7870" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B7870" s="2">
+        <v>0.40849999999999997</v>
+      </c>
+    </row>
+    <row r="7871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7871" s="3">
+        <v>44211</v>
+      </c>
+      <c r="B7871" s="2">
+        <v>0.39750000000000002</v>
+      </c>
+    </row>
+    <row r="7872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7872" s="3">
+        <v>44214</v>
+      </c>
+      <c r="B7872" s="2">
+        <v>0.39750000000000002</v>
+      </c>
+    </row>
+    <row r="7873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7873" s="3">
+        <v>44215</v>
+      </c>
+      <c r="B7873" s="2">
+        <v>0.37909999999999999</v>
+      </c>
+    </row>
+    <row r="7874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7874" s="3">
+        <v>44216</v>
+      </c>
+      <c r="B7874" s="2">
+        <v>0.38129999999999997</v>
+      </c>
+    </row>
+    <row r="7875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7875" s="3">
+        <v>44217</v>
+      </c>
+      <c r="B7875" s="2">
+        <v>0.38150000000000001</v>
+      </c>
+    </row>
+    <row r="7876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7876" s="3">
+        <v>44218</v>
+      </c>
+      <c r="B7876" s="2">
+        <v>0.39290000000000003</v>
+      </c>
+    </row>
+    <row r="7877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7877" s="3">
+        <v>44221</v>
+      </c>
+      <c r="B7877" s="2">
+        <v>0.39350000000000002</v>
+      </c>
+    </row>
+    <row r="7878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7878" s="3">
+        <v>44222</v>
+      </c>
+      <c r="B7878" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="7879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7879" s="3">
+        <v>44223</v>
+      </c>
+      <c r="B7879" s="2">
+        <v>0.39639999999999997</v>
+      </c>
+    </row>
+    <row r="7880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7880" s="3">
+        <v>44224</v>
+      </c>
+      <c r="B7880" s="2">
+        <v>0.39760000000000001</v>
+      </c>
+    </row>
+    <row r="7881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7881" s="3">
+        <v>44225</v>
+      </c>
+      <c r="B7881" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="7882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7882" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B7882" s="2">
+        <v>0.40110000000000001</v>
+      </c>
+    </row>
+    <row r="7883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7883" s="3">
+        <v>44229</v>
+      </c>
+      <c r="B7883" s="2">
+        <v>0.40710000000000002</v>
+      </c>
+    </row>
+    <row r="7884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7884" s="3">
+        <v>44230</v>
+      </c>
+      <c r="B7884" s="2">
+        <v>0.39119999999999999</v>
+      </c>
+    </row>
+    <row r="7885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7885" s="3">
+        <v>44231</v>
+      </c>
+      <c r="B7885" s="2">
+        <v>0.39279999999999998</v>
+      </c>
+    </row>
+    <row r="7886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7886" s="3">
+        <v>44232</v>
+      </c>
+      <c r="B7886" s="2">
+        <v>0.38829999999999998</v>
+      </c>
+    </row>
+    <row r="7887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7887" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B7887" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="7888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7888" s="3">
+        <v>44236</v>
+      </c>
+      <c r="B7888" s="2">
+        <v>0.39379999999999998</v>
+      </c>
+    </row>
+    <row r="7889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7889" s="3">
+        <v>44237</v>
+      </c>
+      <c r="B7889" s="2">
+        <v>0.38350000000000001</v>
+      </c>
+    </row>
+    <row r="7890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7890" s="3">
+        <v>44238</v>
+      </c>
+      <c r="B7890" s="2">
+        <v>0.38729999999999998</v>
+      </c>
+    </row>
+    <row r="7891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7891" s="3">
+        <v>44239</v>
+      </c>
+      <c r="B7891" s="2">
+        <v>0.3785</v>
+      </c>
+    </row>
+    <row r="7892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7892" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B7892" s="2">
+        <v>0.3785</v>
+      </c>
+    </row>
+    <row r="7893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7893" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B7893" s="2">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="7894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7894" s="3">
+        <v>44244</v>
+      </c>
+      <c r="B7894" s="2">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="7895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7895" s="3">
+        <v>44245</v>
+      </c>
+      <c r="B7895" s="2">
+        <v>0.37719999999999998</v>
+      </c>
+    </row>
+    <row r="7896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7896" s="3">
+        <v>44246</v>
+      </c>
+      <c r="B7896" s="2">
+        <v>0.37330000000000002</v>
+      </c>
+    </row>
+    <row r="7897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7897" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B7897" s="2">
+        <v>0.38030000000000003</v>
+      </c>
+    </row>
+    <row r="7898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7898" s="3">
+        <v>44250</v>
+      </c>
+      <c r="B7898" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="7899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7899" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B7899" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="7900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7900" s="3">
+        <v>44252</v>
+      </c>
+      <c r="B7900" s="2">
+        <v>0.4642</v>
+      </c>
+    </row>
+    <row r="7901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7901" s="3">
+        <v>44253</v>
+      </c>
+      <c r="B7901" s="2">
+        <v>0.42309999999999998</v>
+      </c>
+    </row>
+    <row r="7902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7902" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B7902" s="2">
+        <v>0.41249999999999998</v>
+      </c>
+    </row>
+    <row r="7903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7903" s="3">
+        <v>44257</v>
+      </c>
+      <c r="B7903" s="2">
+        <v>0.41959999999999997</v>
+      </c>
+    </row>
+    <row r="7904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7904" s="3">
+        <v>44258</v>
+      </c>
+      <c r="B7904" s="2">
+        <v>0.43080000000000002</v>
+      </c>
+    </row>
+    <row r="7905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7905" s="3">
+        <v>44259</v>
+      </c>
+      <c r="B7905" s="2">
+        <v>0.46250000000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
